--- a/Results/gPC Results - Case2.xlsx
+++ b/Results/gPC Results - Case2.xlsx
@@ -8,17 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kuleuven-my.sharepoint.com/personal/kaan_yurtseven_kuleuven_be/Documents/Work Laptop/dev/StochasticPowerModelsACDC/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{C353BCB8-5EC8-0143-BDD3-A1B661DAACD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC96CBE9-C9FE-488C-B23D-FE3396E46799}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{C353BCB8-5EC8-0143-BDD3-A1B661DAACD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8D6006D6-F2AC-41E5-8EBA-BC89C9C25FB3}"/>
   <bookViews>
-    <workbookView xWindow="-29657" yWindow="3583" windowWidth="24686" windowHeight="13148" xr2:uid="{52D9C27D-0EF6-DD41-9728-0267E68F7539}"/>
+    <workbookView xWindow="-29837" yWindow="1526" windowWidth="24686" windowHeight="13148" xr2:uid="{52D9C27D-0EF6-DD41-9728-0267E68F7539}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -391,7 +402,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
